--- a/output/below_50/tRNA-Gly-GCC-2-4.xlsx
+++ b/output/below_50/tRNA-Gly-GCC-2-4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="85">
   <si>
     <t>chr16</t>
   </si>
@@ -267,252 +267,6 @@
   </si>
   <si>
     <t>89</t>
-  </si>
-  <si>
-    <t>70813017</t>
-  </si>
-  <si>
-    <t>70812997</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>CTGGAGCATTGGTGGTTCAG</t>
-  </si>
-  <si>
-    <t>66% (55)</t>
-  </si>
-  <si>
-    <t>91% (71)</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 21, Doench 2016: 66%, Moreno-Mateos: 91%</t>
-  </si>
-  <si>
-    <t>23990398775</t>
-  </si>
-  <si>
-    <t>70813137</t>
-  </si>
-  <si>
-    <t>70813160</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>70813140</t>
-  </si>
-  <si>
-    <t>CATGCCCCACCTCCTCCCAT</t>
-  </si>
-  <si>
-    <t>56% (52)</t>
-  </si>
-  <si>
-    <t>54% (47)</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 44, Doench 2016: 56%, Moreno-Mateos: 54%</t>
-  </si>
-  <si>
-    <t>1.86523E+11</t>
-  </si>
-  <si>
-    <t>70813185</t>
-  </si>
-  <si>
-    <t>70813208</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>70813205</t>
-  </si>
-  <si>
-    <t>TCAAAAGAAAAGTCCATGAA</t>
-  </si>
-  <si>
-    <t>53% (51)</t>
-  </si>
-  <si>
-    <t>35% (38)</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 38, Doench 2016: 53%, Moreno-Mateos: 35%</t>
-  </si>
-  <si>
-    <t>3.38309E+11</t>
-  </si>
-  <si>
-    <t>70813366</t>
-  </si>
-  <si>
-    <t>70813389</t>
-  </si>
-  <si>
-    <t>70813369</t>
-  </si>
-  <si>
-    <t>ATTCAGTAGAATAACCCACA</t>
-  </si>
-  <si>
-    <t>99% (73)</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>70813405</t>
-  </si>
-  <si>
-    <t>70813428</t>
-  </si>
-  <si>
-    <t>70813408</t>
-  </si>
-  <si>
-    <t>AAACAAGACAAATCAACCAG</t>
-  </si>
-  <si>
-    <t>98% (70)</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>70813441</t>
-  </si>
-  <si>
-    <t>70813464</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>70813444</t>
-  </si>
-  <si>
-    <t>AGAGGCTTACAGTCTAGTCA</t>
-  </si>
-  <si>
-    <t>33% (37)</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 31, Doench 2016: 81%, Moreno-Mateos: 33%</t>
-  </si>
-  <si>
-    <t>2.04827E+11</t>
-  </si>
-  <si>
-    <t>70813443</t>
-  </si>
-  <si>
-    <t>70813466</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>70813463</t>
-  </si>
-  <si>
-    <t>TTGACTAGACTGTAAGCCTC</t>
-  </si>
-  <si>
-    <t>50% (50)</t>
-  </si>
-  <si>
-    <t>63% (51)</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 39, Doench 2016: 50%, Moreno-Mateos: 63%</t>
-  </si>
-  <si>
-    <t>2.17321E+11</t>
-  </si>
-  <si>
-    <t>70813452</t>
-  </si>
-  <si>
-    <t>70813475</t>
-  </si>
-  <si>
-    <t>70813472</t>
-  </si>
-  <si>
-    <t>CTGTAAGCCTCTGGAGCACA</t>
-  </si>
-  <si>
-    <t>72% (57)</t>
-  </si>
-  <si>
-    <t>59% (49)</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>70813459</t>
-  </si>
-  <si>
-    <t>70813482</t>
-  </si>
-  <si>
-    <t>70813462</t>
-  </si>
-  <si>
-    <t>ACAAAGTCCTTGTGCTCCAG</t>
-  </si>
-  <si>
-    <t>82% (62)</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>70813486</t>
-  </si>
-  <si>
-    <t>70813483</t>
-  </si>
-  <si>
-    <t>TGGAGCACAAGGACTTTGTC</t>
-  </si>
-  <si>
-    <t>46% (49)</t>
-  </si>
-  <si>
-    <t>69</t>
   </si>
 </sst>
 </file>
@@ -557,7 +311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1153,596 +907,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" t="s">
-        <v>88</v>
-      </c>
-      <c r="L11" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" t="s">
-        <v>89</v>
-      </c>
-      <c r="O11" t="s">
-        <v>90</v>
-      </c>
-      <c r="P11" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>92</v>
-      </c>
-      <c r="R11" t="s">
-        <v>93</v>
-      </c>
-      <c r="S11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" t="s">
-        <v>96</v>
-      </c>
-      <c r="H12" t="s">
-        <v>87</v>
-      </c>
-      <c r="I12" t="s">
-        <v>87</v>
-      </c>
-      <c r="J12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" t="s">
-        <v>99</v>
-      </c>
-      <c r="L12" t="s">
-        <v>47</v>
-      </c>
-      <c r="M12" t="s">
-        <v>97</v>
-      </c>
-      <c r="N12" t="s">
-        <v>100</v>
-      </c>
-      <c r="O12" t="s">
-        <v>101</v>
-      </c>
-      <c r="P12" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>103</v>
-      </c>
-      <c r="R12" t="s">
-        <v>104</v>
-      </c>
-      <c r="S12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" t="s">
-        <v>109</v>
-      </c>
-      <c r="H13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" t="s">
-        <v>110</v>
-      </c>
-      <c r="L13" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13" t="s">
-        <v>108</v>
-      </c>
-      <c r="N13" t="s">
-        <v>111</v>
-      </c>
-      <c r="O13" t="s">
-        <v>112</v>
-      </c>
-      <c r="P13" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>64</v>
-      </c>
-      <c r="R13" t="s">
-        <v>114</v>
-      </c>
-      <c r="S13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>118</v>
-      </c>
-      <c r="G14" t="s">
-        <v>117</v>
-      </c>
-      <c r="H14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" t="s">
-        <v>119</v>
-      </c>
-      <c r="L14" t="s">
-        <v>47</v>
-      </c>
-      <c r="M14" t="s">
-        <v>10</v>
-      </c>
-      <c r="N14" t="s">
-        <v>120</v>
-      </c>
-      <c r="O14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P14" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>122</v>
-      </c>
-      <c r="R14" t="s">
-        <v>15</v>
-      </c>
-      <c r="S14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" t="s">
-        <v>125</v>
-      </c>
-      <c r="G15" t="s">
-        <v>124</v>
-      </c>
-      <c r="H15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" t="s">
-        <v>126</v>
-      </c>
-      <c r="L15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M15" t="s">
-        <v>10</v>
-      </c>
-      <c r="N15" t="s">
-        <v>127</v>
-      </c>
-      <c r="O15" t="s">
-        <v>101</v>
-      </c>
-      <c r="P15" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>103</v>
-      </c>
-      <c r="R15" t="s">
-        <v>15</v>
-      </c>
-      <c r="S15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" t="s">
-        <v>132</v>
-      </c>
-      <c r="G16" t="s">
-        <v>130</v>
-      </c>
-      <c r="H16" t="s">
-        <v>87</v>
-      </c>
-      <c r="I16" t="s">
-        <v>87</v>
-      </c>
-      <c r="J16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" t="s">
-        <v>133</v>
-      </c>
-      <c r="L16" t="s">
-        <v>47</v>
-      </c>
-      <c r="M16" t="s">
-        <v>131</v>
-      </c>
-      <c r="N16" t="s">
-        <v>68</v>
-      </c>
-      <c r="O16" t="s">
-        <v>134</v>
-      </c>
-      <c r="P16" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>135</v>
-      </c>
-      <c r="R16" t="s">
-        <v>136</v>
-      </c>
-      <c r="S16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" t="s">
-        <v>140</v>
-      </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" t="s">
-        <v>138</v>
-      </c>
-      <c r="G17" t="s">
-        <v>141</v>
-      </c>
-      <c r="H17" t="s">
-        <v>87</v>
-      </c>
-      <c r="I17" t="s">
-        <v>87</v>
-      </c>
-      <c r="J17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" t="s">
-        <v>142</v>
-      </c>
-      <c r="L17" t="s">
-        <v>38</v>
-      </c>
-      <c r="M17" t="s">
-        <v>140</v>
-      </c>
-      <c r="N17" t="s">
-        <v>143</v>
-      </c>
-      <c r="O17" t="s">
-        <v>144</v>
-      </c>
-      <c r="P17" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>146</v>
-      </c>
-      <c r="R17" t="s">
-        <v>147</v>
-      </c>
-      <c r="S17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>149</v>
-      </c>
-      <c r="C18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" t="s">
-        <v>149</v>
-      </c>
-      <c r="G18" t="s">
-        <v>151</v>
-      </c>
-      <c r="H18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" t="s">
-        <v>152</v>
-      </c>
-      <c r="L18" t="s">
-        <v>47</v>
-      </c>
-      <c r="M18" t="s">
-        <v>10</v>
-      </c>
-      <c r="N18" t="s">
-        <v>153</v>
-      </c>
-      <c r="O18" t="s">
-        <v>154</v>
-      </c>
-      <c r="P18" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>24</v>
-      </c>
-      <c r="R18" t="s">
-        <v>15</v>
-      </c>
-      <c r="S18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" t="s">
-        <v>157</v>
-      </c>
-      <c r="D19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" t="s">
-        <v>158</v>
-      </c>
-      <c r="G19" t="s">
-        <v>157</v>
-      </c>
-      <c r="H19" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" t="s">
-        <v>159</v>
-      </c>
-      <c r="L19" t="s">
-        <v>47</v>
-      </c>
-      <c r="M19" t="s">
-        <v>10</v>
-      </c>
-      <c r="N19" t="s">
-        <v>153</v>
-      </c>
-      <c r="O19" t="s">
-        <v>160</v>
-      </c>
-      <c r="P19" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>42</v>
-      </c>
-      <c r="R19" t="s">
-        <v>15</v>
-      </c>
-      <c r="S19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C20" t="s">
-        <v>162</v>
-      </c>
-      <c r="D20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" t="s">
-        <v>141</v>
-      </c>
-      <c r="G20" t="s">
-        <v>163</v>
-      </c>
-      <c r="H20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" t="s">
-        <v>164</v>
-      </c>
-      <c r="L20" t="s">
-        <v>38</v>
-      </c>
-      <c r="M20" t="s">
-        <v>10</v>
-      </c>
-      <c r="N20" t="s">
-        <v>165</v>
-      </c>
-      <c r="O20" t="s">
-        <v>62</v>
-      </c>
-      <c r="P20" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>166</v>
-      </c>
-      <c r="R20" t="s">
-        <v>15</v>
-      </c>
-      <c r="S20" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
